--- a/biology/Médecine/Alexis_Littré/Alexis_Littré.xlsx
+++ b/biology/Médecine/Alexis_Littré/Alexis_Littré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexis_Littr%C3%A9</t>
+          <t>Alexis_Littré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexis Littré, né le 17 juillet 1654[1] à Cordes-sur-Ciel et mort à Paris le 3 février 1725, est un médecin et un anatomiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexis Littré, né le 17 juillet 1654 à Cordes-sur-Ciel et mort à Paris le 3 février 1725, est un médecin et un anatomiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexis_Littr%C3%A9</t>
+          <t>Alexis_Littré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a étudié la médecine à Montpellier et à Paris, obtenant le doctorat en 1691. En 1699, il est devenu membre de l’Académie des sciences. Littré a enseigné l’anatomie à Paris et écrit de nombreuses publications médicales.
 Il a été le premier à décrire la saillie herniaire d’un diverticule de l’intestin (diverticule de Meckel). Cette affection est maintenant désignée sous le nom de « hernie de Littré ». Il a également décrit des glandes muqueuses urétrales de l’urètre masculin, structures qui devaient être connues sous le nom de « glandes de Littré », et dont l’inflammation est parfois appelée « littréite ». En 1701, il décrit une grossesse extra-utérine dans sa localisation tubaire. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexis_Littr%C3%A9</t>
+          <t>Alexis_Littré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Académie des sciences a mis en ligne des mémoires d'Alexis Littré[2]. La France littéraire de Joseph-Marie Quérard donne également une liste d'articles parus dans les mémoires de l'Académie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Académie des sciences a mis en ligne des mémoires d'Alexis Littré. La France littéraire de Joseph-Marie Quérard donne également une liste d'articles parus dans les mémoires de l'Académie.
 Littré, « Observations sur des plaies de ventre », Mémoires de mathématique et de physique de l'Académie royale des sciences,‎ 1705, p. 32–37 (lire en ligne)</t>
         </is>
       </c>
